--- a/TestResults/CntryOrgStdPost.xlsx
+++ b/TestResults/CntryOrgStdPost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>Validate that the Country ORG STD  service is successfully created when valid values are passed for all attributes in JSON Request.</t>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully created when empty value is passed for countryFullName in JSON Request.</t>
   </si>
   <si>
     <t>Post</t>
@@ -60,39 +60,39 @@
 {
 	"meta":
 	{
-		"userName":"Automation"
+		"userName":"3572253"
 	},
 	"countryOrgStdDTO":
 	{
-		"countryCode":"PP",
-		"countryShortName":"cntrysh",
-		"countryFullName":"cntryfullnm",
-		"orgStandardCode":"Special",
+		"countryCode":"SK",
+		"countryShortName":"HQ",
+		"countryFullName":"",
+		"organizationStandardCode":"OrgTest1",
 		"effectiveDate":"2020-08-01",
 		"expirationDate":"2020-08-30"
 	}
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Input_UserName: Automation
-Response_GeoId: 9128498902503569559
-Input_CountryShortName: cntrysh
-Input_CountryFullame: cntryfullnm
-Input_orgStandardCode: Special
+    <t xml:space="preserve">Input_UserName: 3572253
+Response_GeoId: 5067003311719649651
+Input_CountryShortName: HQ
+Input_CountryFullame: 
+Input_organizationStandardCode: OrgTest1
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
-Input_LastUpdateUserName: Automation
+Input_LastUpdateUserName:3572253
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_UserName: Automation
-DB_GeoId: 9128498902503569559
-DB_CountryShortName: cntrysh
-DB_CountryFullame: cntryfullnm
-DB_orgStandardCode: Special
+    <t xml:space="preserve">DB_UserName: 3572253
+DB_GeoId: 5067003311719649651
+DB_CountryShortName: HQ
+DB_CountryFullame: 
+DB_organizationStandardCode: OrgTest1
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
-DB_LastUpdateUserName: Automation
+DB_LastUpdateUserName: 3572253
 </t>
   </si>
   <si>
@@ -106,19 +106,22 @@
 {
 	"meta":
 	{
-		"userName":"Automation",
+		"userName":"3572253",
 		"version":"1.0.0",
+		"transactionId":"e4cd5ca4-6ee0-4ed6-a4ff-fb965c62b901",
+		"timeStamp":"2020-06-22 10:02:47",
+		"statusCode":"200",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"CntryOrgStd Details successfully saved with OrgStdCd :Special",
+			"internalMessage":"CountryOrganizationStandard Details successfully saved with organizationStandardCode :OrgTest1",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"geoplId":9128498902503569559,
-		"orgStdCd":"Special"
+		"geopoliticalId":"5067003311719649651",
+		"organizationStandardCode":"OrgTest1"
 	}
 }</t>
   </si>
@@ -129,34 +132,212 @@
     <t/>
   </si>
   <si>
-    <t>Audit Table Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input_UserName: Automation
-Response_GeoId: 9128498902503569559
-Input_CountryShortName: cntrysh
-Input_CountryFullame: cntryfullnm
-Input_orgStandardCode: Special
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully created when the empty value is passed in JSON for expirationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3572253"
+	},
+	"countryOrgStdDTO":
+	{
+		"countryCode":"SN",
+		"countryShortName":"mavw",
+		"countryFullName":"maharstractw",
+		"organizationStandardCode":"OrgTest1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":""
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3572253
+Response_GeoId: 8306555275219754462
+Input_CountryShortName: mavw
+Input_CountryFullame: maharstractw
+Input_organizationStandardCode: OrgTest1
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 9999-12-31
+Input_LastUpdateUserName: 3572253
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_UserName: 3572253
+DB_GeoId: 8306555275219754462
+DB_CountryShortName: mavw
+DB_CountryFullame: maharstractw
+DB_organizationStandardCode: OrgTest1
+DB_effectiveDate: 2020-08-01
+DB_expirationDate: 9999-12-31
+DB_LastUpdateUserName: 3572253
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3572253",
+		"version":"1.0.0",
+		"transactionId":"017f215f-69f6-4a8f-85a6-034d43bfa5ea",
+		"timeStamp":"2020-06-22 10:02:52",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"CountryOrganizationStandard Details successfully saved with organizationStandardCode :OrgTest1",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"8306555275219754462",
+		"organizationStandardCode":"OrgTest1"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully created when countryFullName attributes IS NOT PASSED in JSON Request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3572253"
+	},
+	"countryOrgStdDTO":
+	{
+		"countryCode":"SS",
+		"countryShortName":"AP",
+		"organizationStandardCode":"OrgTest1",
+		"effectiveDate":"2020-08-01",
+		"expirationDate":"2020-08-30"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3572253
+Response_GeoId: 136684529134406294
+Input_CountryShortName: AP
+Input_CountryFullame: 
+Input_organizationStandardCode: OrgTest1
 Input_effectiveDate: 2020-08-01
 Input_expirationDate: 2020-08-30
-Input_LastUpdateUserName: Automation
-Expected RevisionType CD:0
+Input_LastUpdateUserName:3572253
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DB_UserName: Automation
-DB_GeoId: 9128498902503569559
-DB_CountryShortName: cntrysh
-DB_CountryFullame: cntryfullnm
-DB_orgStandardCode: Special
+    <t xml:space="preserve">DB_UserName: 3572253
+DB_GeoId: 136684529134406294
+DB_CountryShortName: AP
+DB_CountryFullame: 
+DB_organizationStandardCode: OrgTest1
 DB_effectiveDate: 2020-08-01
 DB_expirationDate: 2020-08-30
-DB_LastUpdateUserName: Automation
-DB_RevisionType CD:0
+DB_LastUpdateUserName: 3572253
 </t>
   </si>
   <si>
-    <t>Audit Table validation</t>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3572253",
+		"version":"1.0.0",
+		"transactionId":"af3e9c6c-eb34-4494-ad53-359c26a94a3f",
+		"timeStamp":"2020-06-22 10:02:58",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"CountryOrganizationStandard Details successfully saved with organizationStandardCode :OrgTest1",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"136684529134406294",
+		"organizationStandardCode":"OrgTest1"
+	}
+}</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Verify that the Country ORG STD service is successfully created when the expirationDate attribute is not passed in JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3572253"
+	},
+	"countryOrgStdDTO":
+	{
+		"countryCode":"SX",
+		"countryShortName":"QQ",
+		"countryFullName":"QQ",
+		"organizationStandardCode":"OrgTest1",
+		"effectiveDate":"2020-08-01"
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName: 3572253
+Response_GeoId: 7446563641654534905
+Input_CountryShortName: QQ
+Input_CountryFullame: QQ
+Input_organizationStandardCode: OrgTest1
+Input_effectiveDate: 2020-08-01
+Input_expirationDate: 9999-12-31
+Input_LastUpdateUserName: 3572253
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_UserName: 3572253
+DB_GeoId: 7446563641654534905
+DB_CountryShortName: QQ
+DB_CountryFullame: QQ
+DB_organizationStandardCode: OrgTest1
+DB_effectiveDate: 2020-08-01
+DB_expirationDate: 9999-12-31
+DB_LastUpdateUserName: 3572253
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3572253",
+		"version":"1.0.0",
+		"transactionId":"c8b42369-fcc7-4fce-aafe-9d2091861b60",
+		"timeStamp":"2020-06-22 10:03:01",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"CountryOrganizationStandard Details successfully saved with organizationStandardCode :OrgTest1",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"7446563641654534905",
+		"organizationStandardCode":"OrgTest1"
+	}
+}</t>
   </si>
 </sst>
 </file>
@@ -164,7 +345,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="46">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -177,6 +358,116 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -355,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -424,6 +715,72 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -524,39 +881,111 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="13">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="15">
         <v>13</v>
       </c>
       <c r="D3" t="s" s="16">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s" s="17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s" s="18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s" s="19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s" s="21">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s" s="22">
         <v>20</v>
       </c>
       <c r="K3" t="s" s="23">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="24">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="25">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s" s="29">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s" s="30">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s" s="31">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s" s="32">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="35">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="38">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s" s="39">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s" s="40">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s" s="41">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="43">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s" s="44">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s" s="45">
+        <v>21</v>
+      </c>
+      <c r="L5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
